--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N2">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O2">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P2">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q2">
-        <v>560.0060841219911</v>
+        <v>317.5927407155591</v>
       </c>
       <c r="R2">
-        <v>5040.054757097919</v>
+        <v>2858.334666440032</v>
       </c>
       <c r="S2">
-        <v>0.009495649089010136</v>
+        <v>0.002849047505455882</v>
       </c>
       <c r="T2">
-        <v>0.009833691583266808</v>
+        <v>0.002932998665400097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P3">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q3">
-        <v>844.984867081781</v>
+        <v>595.1055498609315</v>
       </c>
       <c r="R3">
-        <v>7604.86380373603</v>
+        <v>5355.949948748384</v>
       </c>
       <c r="S3">
-        <v>0.01432784394818217</v>
+        <v>0.005338547658533352</v>
       </c>
       <c r="T3">
-        <v>0.01483791124954964</v>
+        <v>0.005495855414017633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N4">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O4">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P4">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q4">
-        <v>3984.540836072296</v>
+        <v>3402.470304424814</v>
       </c>
       <c r="R4">
-        <v>35860.86752465067</v>
+        <v>30622.23273982333</v>
       </c>
       <c r="S4">
-        <v>0.06756319731685538</v>
+        <v>0.03052273648121934</v>
       </c>
       <c r="T4">
-        <v>0.0699684285471647</v>
+        <v>0.03142213149915533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N5">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O5">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P5">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q5">
-        <v>567.5312221296285</v>
+        <v>370.4799403819094</v>
       </c>
       <c r="R5">
-        <v>3405.187332777771</v>
+        <v>2222.879642291457</v>
       </c>
       <c r="S5">
-        <v>0.00962324782747551</v>
+        <v>0.003323485755966501</v>
       </c>
       <c r="T5">
-        <v>0.006643888534469935</v>
+        <v>0.002280944600621584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N6">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O6">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P6">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q6">
-        <v>3007.175937115459</v>
+        <v>4586.472986725693</v>
       </c>
       <c r="R6">
-        <v>27064.58343403913</v>
+        <v>41278.25688053123</v>
       </c>
       <c r="S6">
-        <v>0.05099067359693757</v>
+        <v>0.0411441375902691</v>
       </c>
       <c r="T6">
-        <v>0.05280592754376739</v>
+        <v>0.04235650701162587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N7">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O7">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P7">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q7">
-        <v>167.0355377140782</v>
+        <v>134.5059920477635</v>
       </c>
       <c r="R7">
-        <v>1503.319839426704</v>
+        <v>1210.553928429872</v>
       </c>
       <c r="S7">
-        <v>0.002832310034655781</v>
+        <v>0.001206620655903976</v>
       </c>
       <c r="T7">
-        <v>0.002933139492405157</v>
+        <v>0.001242175417094096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P8">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q8">
         <v>252.0374432262737</v>
@@ -948,10 +948,10 @@
         <v>2268.336989036464</v>
       </c>
       <c r="S8">
-        <v>0.004273630565854112</v>
+        <v>0.002260966819605002</v>
       </c>
       <c r="T8">
-        <v>0.004425770637846124</v>
+        <v>0.002327589361608159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N9">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O9">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P9">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q9">
-        <v>1188.486946781196</v>
+        <v>1441.004736690743</v>
       </c>
       <c r="R9">
-        <v>10696.38252103077</v>
+        <v>12969.04263021669</v>
       </c>
       <c r="S9">
-        <v>0.02015237925708838</v>
+        <v>0.01292690425218444</v>
       </c>
       <c r="T9">
-        <v>0.02086979841247365</v>
+        <v>0.01330781352252145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N10">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O10">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P10">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q10">
-        <v>169.2800945307226</v>
+        <v>156.9046313923627</v>
       </c>
       <c r="R10">
-        <v>1015.680567184336</v>
+        <v>941.427788354176</v>
       </c>
       <c r="S10">
-        <v>0.002870369485250177</v>
+        <v>0.001407553420949414</v>
       </c>
       <c r="T10">
-        <v>0.001981702565977542</v>
+        <v>0.000966019297611627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N11">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O11">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P11">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q11">
-        <v>896.9639150339947</v>
+        <v>1942.45025150723</v>
       </c>
       <c r="R11">
-        <v>8072.675235305952</v>
+        <v>17482.05226356507</v>
       </c>
       <c r="S11">
-        <v>0.01520921794273244</v>
+        <v>0.01742525043569959</v>
       </c>
       <c r="T11">
-        <v>0.01575066191574161</v>
+        <v>0.01793870975274996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N12">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O12">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P12">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q12">
-        <v>1365.686311425367</v>
+        <v>1572.78218763159</v>
       </c>
       <c r="R12">
-        <v>12291.1768028283</v>
+        <v>14155.03968868431</v>
       </c>
       <c r="S12">
-        <v>0.02315703051564516</v>
+        <v>0.01410904782710514</v>
       </c>
       <c r="T12">
-        <v>0.02398141442892039</v>
+        <v>0.01452479060728892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P13">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q13">
-        <v>2060.663801795033</v>
+        <v>2947.08061170783</v>
       </c>
       <c r="R13">
-        <v>18545.9742161553</v>
+        <v>26523.72550537047</v>
       </c>
       <c r="S13">
-        <v>0.03494129958061071</v>
+        <v>0.02643754591570941</v>
       </c>
       <c r="T13">
-        <v>0.03618520022943204</v>
+        <v>0.02721656509368101</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N14">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O14">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P14">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q14">
-        <v>9717.095994896232</v>
+        <v>16849.70719635411</v>
       </c>
       <c r="R14">
-        <v>87453.8639540661</v>
+        <v>151647.364767187</v>
       </c>
       <c r="S14">
-        <v>0.1647663058454566</v>
+        <v>0.1511546395779532</v>
       </c>
       <c r="T14">
-        <v>0.1706319409879682</v>
+        <v>0.1556086219349405</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N15">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O15">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P15">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q15">
-        <v>1384.03785841745</v>
+        <v>1834.69008074508</v>
       </c>
       <c r="R15">
-        <v>8304.227150504701</v>
+        <v>11008.14048447048</v>
       </c>
       <c r="S15">
-        <v>0.02346820543930785</v>
+        <v>0.01645856006045462</v>
       </c>
       <c r="T15">
-        <v>0.01620244472948437</v>
+        <v>0.01129568966453498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N16">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O16">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P16">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q16">
-        <v>7333.597133690601</v>
+        <v>22713.12310641309</v>
       </c>
       <c r="R16">
-        <v>66002.37420321541</v>
+        <v>204418.1079577178</v>
       </c>
       <c r="S16">
-        <v>0.124350907813578</v>
+        <v>0.203753922654657</v>
       </c>
       <c r="T16">
-        <v>0.1287777659089381</v>
+        <v>0.2097578162778015</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N17">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O17">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P17">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q17">
-        <v>149.858738705065</v>
+        <v>177.6713623684653</v>
       </c>
       <c r="R17">
-        <v>899.1524322303899</v>
+        <v>1066.028174210792</v>
       </c>
       <c r="S17">
-        <v>0.002541054527820046</v>
+        <v>0.001593846731528978</v>
       </c>
       <c r="T17">
-        <v>0.001754343579788628</v>
+        <v>0.001093874432882037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H18">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I18">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J18">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>49.753537</v>
       </c>
       <c r="O18">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P18">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q18">
-        <v>226.119626189915</v>
+        <v>332.9207511437506</v>
       </c>
       <c r="R18">
-        <v>1356.71775713949</v>
+        <v>1997.524506862504</v>
       </c>
       <c r="S18">
-        <v>0.003834159455256643</v>
+        <v>0.002986551372123768</v>
       </c>
       <c r="T18">
-        <v>0.002647102984439267</v>
+        <v>0.002049702850236424</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N19">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O19">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P19">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q19">
-        <v>1066.271029802855</v>
+        <v>1903.448841567895</v>
       </c>
       <c r="R19">
-        <v>6397.626178817129</v>
+        <v>11420.69304940737</v>
       </c>
       <c r="S19">
-        <v>0.01808004559211141</v>
+        <v>0.01707537823948197</v>
       </c>
       <c r="T19">
-        <v>0.01248246015956908</v>
+        <v>0.01171901872273596</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N20">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O20">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P20">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q20">
-        <v>151.8724805596275</v>
+        <v>207.258124318384</v>
       </c>
       <c r="R20">
-        <v>607.48992223851</v>
+        <v>829.0324972735361</v>
       </c>
       <c r="S20">
-        <v>0.002575200203284908</v>
+        <v>0.001859262402359528</v>
       </c>
       <c r="T20">
-        <v>0.001185278498576475</v>
+        <v>0.0008506880725429586</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N21">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O21">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P21">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q21">
-        <v>804.7262445494702</v>
+        <v>2565.817159994665</v>
       </c>
       <c r="R21">
-        <v>4828.357467296821</v>
+        <v>15394.90295996799</v>
       </c>
       <c r="S21">
-        <v>0.01364520537832966</v>
+        <v>0.02301732389307275</v>
       </c>
       <c r="T21">
-        <v>0.00942064728965359</v>
+        <v>0.01579704097133842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H22">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I22">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J22">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N22">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O22">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P22">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q22">
-        <v>1441.649052940935</v>
+        <v>1615.67985276132</v>
       </c>
       <c r="R22">
-        <v>12974.84147646841</v>
+        <v>14541.11867485188</v>
       </c>
       <c r="S22">
-        <v>0.02444507998103969</v>
+        <v>0.01449387238434274</v>
       </c>
       <c r="T22">
-        <v>0.02531531810079691</v>
+        <v>0.01492095455704042</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H23">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I23">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J23">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>49.753537</v>
       </c>
       <c r="O23">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P23">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q23">
-        <v>2175.28285480646</v>
+        <v>3027.462293408931</v>
       </c>
       <c r="R23">
-        <v>19577.54569325814</v>
+        <v>27247.16064068038</v>
       </c>
       <c r="S23">
-        <v>0.0368848182979432</v>
+        <v>0.02715863050101476</v>
       </c>
       <c r="T23">
-        <v>0.0381979076782228</v>
+        <v>0.02795889744240146</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H24">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I24">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J24">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N24">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O24">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P24">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q24">
-        <v>10257.58413274091</v>
+        <v>17309.2832918411</v>
       </c>
       <c r="R24">
-        <v>92318.2571946682</v>
+        <v>155783.5496265699</v>
       </c>
       <c r="S24">
-        <v>0.1739310021572695</v>
+        <v>0.1552773853480999</v>
       </c>
       <c r="T24">
-        <v>0.1801228979662516</v>
+        <v>0.1598528501615559</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H25">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I25">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J25">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N25">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O25">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P25">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q25">
-        <v>1461.021356902542</v>
+        <v>1884.731288815448</v>
       </c>
       <c r="R25">
-        <v>8766.128141415251</v>
+        <v>11308.38773289269</v>
       </c>
       <c r="S25">
-        <v>0.02477356319877736</v>
+        <v>0.01690746761010976</v>
       </c>
       <c r="T25">
-        <v>0.01710366348712245</v>
+        <v>0.01160377982250419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H26">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I26">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J26">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N26">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O26">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P26">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q26">
-        <v>7741.50935978916</v>
+        <v>23332.62398627522</v>
       </c>
       <c r="R26">
-        <v>69673.58423810244</v>
+        <v>209993.615876477</v>
       </c>
       <c r="S26">
-        <v>0.1312676029495278</v>
+        <v>0.2093113149061999</v>
       </c>
       <c r="T26">
-        <v>0.1359406934881735</v>
+        <v>0.2154789648461095</v>
       </c>
     </row>
   </sheetData>
